--- a/FPGA_Manager.xlsx
+++ b/FPGA_Manager.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Keysight_FPGA_Ctrl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B95EB9-1499-44DE-B63F-7C76F9B93E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED044B39-FBED-4822-99AB-35D750C0EE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9D6B71B1-F744-42D8-8D92-15C2EF77CFE4}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10780" activeTab="1" xr2:uid="{9D6B71B1-F744-42D8-8D92-15C2EF77CFE4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules" sheetId="1" r:id="rId1"/>
-    <sheet name="Pulses" sheetId="2" r:id="rId2"/>
-    <sheet name="Sweeps" sheetId="3" r:id="rId3"/>
-    <sheet name="Channel Lookup" sheetId="4" r:id="rId4"/>
+    <sheet name="Pulses" sheetId="2" r:id="rId1"/>
+    <sheet name="Sweeps" sheetId="3" r:id="rId2"/>
+    <sheet name="Channel Lookup" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>Duration</t>
   </si>
@@ -48,39 +44,21 @@
     <t>Start</t>
   </si>
   <si>
-    <t>Channels</t>
-  </si>
-  <si>
     <t>FSTOT</t>
   </si>
   <si>
-    <t>B0, B1</t>
-  </si>
-  <si>
     <t>Cooling</t>
   </si>
   <si>
-    <t>A6, A8</t>
-  </si>
-  <si>
     <t>OPF1</t>
   </si>
   <si>
-    <t>A9, A0</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
-    <t>A7</t>
-  </si>
-  <si>
     <t>Qutau Sync 1</t>
   </si>
   <si>
-    <t>A0</t>
-  </si>
-  <si>
     <t>Qutau Sync 2</t>
   </si>
   <si>
@@ -105,48 +83,27 @@
     <t>Rabi_Sweep_1</t>
   </si>
   <si>
-    <t>B2, B3</t>
-  </si>
-  <si>
     <t>Rabi_Sweep_2</t>
   </si>
   <si>
-    <t>B4</t>
-  </si>
-  <si>
     <t>Rabi_Sweep_3</t>
   </si>
   <si>
-    <t>B5</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
     <t>Channel Name</t>
   </si>
   <si>
-    <t>B0</t>
-  </si>
-  <si>
     <t>Channel B0</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Channel B1</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
     <t>Channel B2</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
     <t>Channel B3</t>
   </si>
   <si>
@@ -156,21 +113,12 @@
     <t>Channel B5</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
     <t>Channel A6</t>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>Channel A8</t>
   </si>
   <si>
-    <t>A9</t>
-  </si>
-  <si>
     <t>Channel A9</t>
   </si>
   <si>
@@ -181,13 +129,166 @@
   </si>
   <si>
     <t>Module Name</t>
+  </si>
+  <si>
+    <t>Channel Names</t>
+  </si>
+  <si>
+    <t>Channel B0, Channel B1</t>
+  </si>
+  <si>
+    <t>Channel A6, Channel A8</t>
+  </si>
+  <si>
+    <t>Channel A9, Channel A0</t>
+  </si>
+  <si>
+    <t>Channel B2, Channel B3</t>
+  </si>
+  <si>
+    <t>Channel B6</t>
+  </si>
+  <si>
+    <t>Channel A0, Channel B6</t>
+  </si>
+  <si>
+    <t>Channel B7</t>
+  </si>
+  <si>
+    <t>Channel B8</t>
+  </si>
+  <si>
+    <t>Channel B9</t>
+  </si>
+  <si>
+    <t>Channel B10</t>
+  </si>
+  <si>
+    <t>Channel B11</t>
+  </si>
+  <si>
+    <t>Channel B12</t>
+  </si>
+  <si>
+    <t>Channel B13</t>
+  </si>
+  <si>
+    <t>Channel B14</t>
+  </si>
+  <si>
+    <t>Channel B15</t>
+  </si>
+  <si>
+    <t>Channel B16</t>
+  </si>
+  <si>
+    <t>Channel B17</t>
+  </si>
+  <si>
+    <t>Channel B18</t>
+  </si>
+  <si>
+    <t>Channel B19</t>
+  </si>
+  <si>
+    <t>Channel B20</t>
+  </si>
+  <si>
+    <t>Channel B21</t>
+  </si>
+  <si>
+    <t>Channel B22</t>
+  </si>
+  <si>
+    <t>Channel B23</t>
+  </si>
+  <si>
+    <t>Channel B24</t>
+  </si>
+  <si>
+    <t>Channel B25</t>
+  </si>
+  <si>
+    <t>Channel B26</t>
+  </si>
+  <si>
+    <t>Channel B27</t>
+  </si>
+  <si>
+    <t>Channel A1</t>
+  </si>
+  <si>
+    <t>Channel A2</t>
+  </si>
+  <si>
+    <t>Channel A3</t>
+  </si>
+  <si>
+    <t>Channel A4</t>
+  </si>
+  <si>
+    <t>Channel A5</t>
+  </si>
+  <si>
+    <t>Channel A10</t>
+  </si>
+  <si>
+    <t>Channel A11</t>
+  </si>
+  <si>
+    <t>Channel A12</t>
+  </si>
+  <si>
+    <t>Channel A13</t>
+  </si>
+  <si>
+    <t>Channel A14</t>
+  </si>
+  <si>
+    <t>Channel A15</t>
+  </si>
+  <si>
+    <t>Channel A16</t>
+  </si>
+  <si>
+    <t>Channel A17</t>
+  </si>
+  <si>
+    <t>Channel A18</t>
+  </si>
+  <si>
+    <t>Channel A19</t>
+  </si>
+  <si>
+    <t>Channel A20</t>
+  </si>
+  <si>
+    <t>Channel A21</t>
+  </si>
+  <si>
+    <t>Channel A22</t>
+  </si>
+  <si>
+    <t>Channel A23</t>
+  </si>
+  <si>
+    <t>Channel A24</t>
+  </si>
+  <si>
+    <t>Channel A25</t>
+  </si>
+  <si>
+    <t>Channel A26</t>
+  </si>
+  <si>
+    <t>Channel A27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +300,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -545,41 +652,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984C7454-4785-4A2A-912F-25203EB687D6}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4672F29C-19DD-45E0-8054-D0004DA8DDB4}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>920.5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>921.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>992</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,130 +791,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4672F29C-19DD-45E0-8054-D0004DA8DDB4}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3814D7-A6F3-4DAD-91CA-FCC13D0F581C}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>920.5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>921.5</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>992</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -718,148 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3814D7-A6F3-4DAD-91CA-FCC13D0F581C}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76056DE0-E061-42C6-8B38-6942D0617901}">
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2">
-        <v>200</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76056DE0-E061-42C6-8B38-6942D0617901}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -871,137 +944,633 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>11</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>13</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>15</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>17</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>18</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>19</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>20</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>21</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>22</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>23</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>24</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>25</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>26</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>49</v>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>